--- a/interoperability.xlsx
+++ b/interoperability.xlsx
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
   <si>
     <t>rabbitmq-receiver</t>
   </si>
@@ -288,7 +288,7 @@
     <t>[5] http://www.rabbitmq.com/interoperability.html</t>
   </si>
   <si>
-    <t>qpid-proton-j</t>
+    <t>?</t>
   </si>
   <si>
     <t>[7] Not tested</t>
@@ -337,6 +337,12 @@
   </si>
   <si>
     <t>[10] http://qpid.apache.org/proton/overview.html</t>
+  </si>
+  <si>
+    <t>qpid-amqp-1-0-client</t>
+  </si>
+  <si>
+    <t>proton-j-messenger</t>
   </si>
 </sst>
 </file>
@@ -1061,60 +1067,71 @@
     </row>
     <row r="16" spans="1:10">
       <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="H16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>53</v>
       </c>

--- a/interoperability.xlsx
+++ b/interoperability.xlsx
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="63">
   <si>
     <t>rabbitmq-receiver</t>
   </si>
@@ -288,9 +288,6 @@
     <t>[5] http://www.rabbitmq.com/interoperability.html</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>[7] Not tested</t>
   </si>
   <si>
@@ -309,9 +306,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>Proprietary</t>
-  </si>
-  <si>
     <t>N [9]</t>
   </si>
   <si>
@@ -343,6 +337,33 @@
   </si>
   <si>
     <t>proton-j-messenger</t>
+  </si>
+  <si>
+    <t>proton-j</t>
+  </si>
+  <si>
+    <t>OpenWire</t>
+  </si>
+  <si>
+    <t>[11] http://stackoverflow.com/questions/24768169/activemq-5-10-qpid-0-28-amqp-1-0-performance-issue</t>
+  </si>
+  <si>
+    <t>Y [11]</t>
+  </si>
+  <si>
+    <t>HornetQ</t>
+  </si>
+  <si>
+    <t>Apollo</t>
+  </si>
+  <si>
+    <t>X [12]</t>
+  </si>
+  <si>
+    <t>? [12]</t>
+  </si>
+  <si>
+    <t>[12] Exception: Error processing connection</t>
   </si>
 </sst>
 </file>
@@ -744,10 +765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -766,7 +787,7 @@
     <col min="18" max="18" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -794,8 +815,14 @@
       <c r="J1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="60">
+      <c r="K1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="60">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -806,7 +833,7 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>17</v>
@@ -824,32 +851,32 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
         <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -857,7 +884,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -868,18 +895,18 @@
         <v>35</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -890,18 +917,18 @@
         <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -919,7 +946,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -937,7 +964,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -955,7 +982,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -975,7 +1002,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -983,7 +1010,7 @@
         <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -995,7 +1022,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1003,11 +1030,11 @@
         <v>31</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="4" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="4" t="s">
@@ -1016,7 +1043,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1024,11 +1051,11 @@
         <v>31</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="4" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="4" t="s">
@@ -1037,48 +1064,52 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>35</v>
+        <v>50</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
         <v>50</v>
       </c>
-      <c r="B15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>35</v>
+      <c r="F15" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
       <c r="B16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" t="s">
-        <v>37</v>
+        <v>54</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="B17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1113,27 +1144,37 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
